--- a/data/Ethereum/Ethereum20180101.xlsx
+++ b/data/Ethereum/Ethereum20180101.xlsx
@@ -466,7 +466,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
@@ -484,7 +484,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5">
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7">
@@ -556,7 +556,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8">
@@ -574,7 +574,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10">
@@ -610,7 +610,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11">
@@ -646,7 +646,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15">
@@ -700,7 +700,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16">
@@ -718,7 +718,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17">
@@ -736,7 +736,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18">
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20">
@@ -790,7 +790,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21">
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22">
@@ -826,7 +826,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23">
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24">
@@ -898,7 +898,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27">
@@ -916,7 +916,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28">
@@ -934,7 +934,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29">
@@ -970,7 +970,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31">
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33">
@@ -1024,7 +1024,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34">
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35">
@@ -1060,7 +1060,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36">
@@ -1078,7 +1078,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37">
@@ -1114,7 +1114,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39">
@@ -1150,7 +1150,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41">
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43">
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46">
@@ -1258,7 +1258,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47">
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49">
@@ -1330,7 +1330,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51">
@@ -1348,7 +1348,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52">
@@ -1366,7 +1366,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53">
@@ -1384,7 +1384,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54">
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55">
@@ -1438,7 +1438,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57">
@@ -1456,7 +1456,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58">
@@ -1474,7 +1474,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60">
@@ -1510,7 +1510,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61">
@@ -1528,7 +1528,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62">
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70">
@@ -1690,7 +1690,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71">
@@ -1726,7 +1726,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73">
@@ -1744,7 +1744,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74">
@@ -1798,7 +1798,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77">
@@ -1834,7 +1834,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79">
@@ -1870,7 +1870,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81">
@@ -1888,7 +1888,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82">
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="83">
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="85">
@@ -1978,7 +1978,7 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="87">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88">
@@ -2014,7 +2014,7 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="89">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="90">
@@ -2068,7 +2068,7 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="92">
@@ -2104,7 +2104,7 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="94">
@@ -2140,7 +2140,7 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="96">
@@ -2176,7 +2176,7 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="98">
@@ -2194,7 +2194,7 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99">
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="100">
@@ -2230,7 +2230,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101">
@@ -2248,7 +2248,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102">
@@ -2338,7 +2338,7 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="107">
@@ -2356,7 +2356,7 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="108">
@@ -2374,7 +2374,7 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109">
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="113">
@@ -2482,7 +2482,7 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115">
@@ -2500,7 +2500,7 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="116">
@@ -2536,7 +2536,7 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="119">
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120">
@@ -2608,7 +2608,7 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="122">
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="123">
@@ -2662,7 +2662,7 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="125">
@@ -2680,7 +2680,7 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="126">
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="127">
@@ -2716,7 +2716,7 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="128">
@@ -2806,7 +2806,7 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="133">
@@ -2878,7 +2878,7 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="137">
@@ -2914,7 +2914,7 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="139">
@@ -2950,7 +2950,7 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="141">
@@ -2968,7 +2968,7 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="142">
@@ -2986,7 +2986,7 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="143">
@@ -3040,7 +3040,7 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="146">
@@ -3058,7 +3058,7 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="147">
@@ -3076,7 +3076,7 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="148">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="150">
@@ -3130,7 +3130,7 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="151">
@@ -3148,7 +3148,7 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="152">
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="154">
@@ -3220,7 +3220,7 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="156">
@@ -3238,7 +3238,7 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="157">
@@ -3274,7 +3274,7 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="159">
@@ -3310,7 +3310,7 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="161">
@@ -3328,7 +3328,7 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="162">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="163">
@@ -3364,7 +3364,7 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="164">
@@ -3400,7 +3400,7 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="166">
@@ -3472,7 +3472,7 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="170">
@@ -3490,7 +3490,7 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="171">
@@ -3616,7 +3616,7 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="178">
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="180">
@@ -3670,7 +3670,7 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="181">
@@ -3688,7 +3688,7 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="182">
@@ -3706,7 +3706,7 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
